--- a/data/CS1/case18_2/case18_2_2020.xlsx
+++ b/data/CS1/case18_2/case18_2_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\CS1\case18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2A393A-2828-42AB-AAB3-5ABFE24F90AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1C8490-7E64-4E6A-B528-4DE9792A09CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25800" yWindow="6900" windowWidth="21600" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -14105,6 +14105,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>0.01</v>
+          </cell>
+        </row>
         <row r="3">
           <cell r="B3">
             <v>0.05</v>
@@ -14112,20 +14117,104 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="B2">
+            <v>0.15335457622998083</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="B2">
+            <v>0.19380670527045352</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="B2">
+            <v>0.18562063325812803</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="B2">
+            <v>5.7468268769399915E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="2">
+          <cell r="B2">
+            <v>0.10191276487082146</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="2">
+          <cell r="B2">
+            <v>9.4532585622479764E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="2">
+          <cell r="B2">
+            <v>0.15500000000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="2">
+          <cell r="B2">
+            <v>0.19545235557090945</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="2">
+          <cell r="B2">
+            <v>0.17604451914219543</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13">
+        <row r="2">
+          <cell r="B2">
+            <v>4.429530201342282E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="2">
+          <cell r="B2">
+            <v>0.10581587722339157</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="2">
+          <cell r="B2">
+            <v>3.9886125305186121E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
@@ -15167,7 +15256,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -24949,7 +25038,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>0</v>
+        <v>1.5680716832769496E-5</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -24969,55 +25058,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0</v>
+        <v>9.5351558928408135E-3</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0</v>
+        <v>0.18890239553808172</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0</v>
+        <v>0.49290093261406231</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0</v>
+        <v>0.61511611959403845</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0</v>
+        <v>0.68321139252080076</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0</v>
+        <v>0.69588141172167872</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0</v>
+        <v>0.68310322757611763</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0</v>
+        <v>0.58327338392612227</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0</v>
+        <v>0.38544322026149763</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0</v>
+        <v>9.4168304836792532E-2</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>0</v>
+        <v>7.3603364725244585E-4</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>0</v>
+        <v>6.3362896589558382E-5</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>0</v>
+        <v>4.8482216329889367E-5</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -25050,7 +25139,7 @@
       </c>
       <c r="D7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>0</v>
+        <v>1.5680716832769496E-5</v>
       </c>
       <c r="E7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -25070,55 +25159,55 @@
       </c>
       <c r="I7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0</v>
+        <v>9.5351558928408135E-3</v>
       </c>
       <c r="J7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0</v>
+        <v>0.18890239553808172</v>
       </c>
       <c r="K7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0</v>
+        <v>0.49290093261406231</v>
       </c>
       <c r="L7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0</v>
+        <v>0.61511611959403845</v>
       </c>
       <c r="M7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0</v>
+        <v>0.68321139252080076</v>
       </c>
       <c r="N7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0</v>
+        <v>0.69588141172167872</v>
       </c>
       <c r="O7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0</v>
+        <v>0.68310322757611763</v>
       </c>
       <c r="P7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0</v>
+        <v>0.58327338392612227</v>
       </c>
       <c r="Q7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0</v>
+        <v>0.38544322026149763</v>
       </c>
       <c r="R7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0</v>
+        <v>9.4168304836792532E-2</v>
       </c>
       <c r="S7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>0</v>
+        <v>7.3603364725244585E-4</v>
       </c>
       <c r="T7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>0</v>
+        <v>6.3362896589558382E-5</v>
       </c>
       <c r="U7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>0</v>
+        <v>4.8482216329889367E-5</v>
       </c>
       <c r="V7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -25620,7 +25709,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>0</v>
+        <v>2.7254098360655734E-5</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -25644,51 +25733,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0</v>
+        <v>7.6400409836065563E-3</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0</v>
+        <v>0.15037377049180325</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0</v>
+        <v>0.35771721311475413</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0</v>
+        <v>0.48138081967213114</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0</v>
+        <v>0.59039606557377045</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0</v>
+        <v>0.70114180327868847</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0</v>
+        <v>0.585118237704918</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0</v>
+        <v>0.42994487704918033</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0</v>
+        <v>0.20624983606557376</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0</v>
+        <v>4.3088729508196713E-2</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>0</v>
+        <v>2.7540983606557371E-4</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>0</v>
+        <v>1.2049180327868852E-4</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -25721,7 +25810,7 @@
       </c>
       <c r="C7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>0</v>
+        <v>2.7254098360655734E-5</v>
       </c>
       <c r="D7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -25745,51 +25834,51 @@
       </c>
       <c r="I7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0</v>
+        <v>7.6400409836065563E-3</v>
       </c>
       <c r="J7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0</v>
+        <v>0.15037377049180325</v>
       </c>
       <c r="K7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0</v>
+        <v>0.35771721311475413</v>
       </c>
       <c r="L7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0</v>
+        <v>0.48138081967213114</v>
       </c>
       <c r="M7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0</v>
+        <v>0.59039606557377045</v>
       </c>
       <c r="N7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0</v>
+        <v>0.70114180327868847</v>
       </c>
       <c r="O7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0</v>
+        <v>0.585118237704918</v>
       </c>
       <c r="P7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0</v>
+        <v>0.42994487704918033</v>
       </c>
       <c r="Q7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0</v>
+        <v>0.20624983606557376</v>
       </c>
       <c r="R7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0</v>
+        <v>4.3088729508196713E-2</v>
       </c>
       <c r="S7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>0</v>
+        <v>2.7540983606557371E-4</v>
       </c>
       <c r="T7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>0</v>
+        <v>1.2049180327868852E-4</v>
       </c>
       <c r="U7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -26319,47 +26408,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0</v>
+        <v>8.260566945077194E-3</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0</v>
+        <v>0.18037822703113135</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0</v>
+        <v>0.41995460010124014</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0</v>
+        <v>0.60561693242217163</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0</v>
+        <v>0.62344801948873685</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0</v>
+        <v>0.59197370918754733</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0</v>
+        <v>0.46347538597823329</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0</v>
+        <v>0.35702126044039478</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0</v>
+        <v>0.15148949633004302</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0</v>
+        <v>2.6744969627942289E-2</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>0</v>
+        <v>4.34067324727917E-5</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -26420,47 +26509,47 @@
       </c>
       <c r="I7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0</v>
+        <v>8.260566945077194E-3</v>
       </c>
       <c r="J7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0</v>
+        <v>0.18037822703113135</v>
       </c>
       <c r="K7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0</v>
+        <v>0.41995460010124014</v>
       </c>
       <c r="L7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0</v>
+        <v>0.60561693242217163</v>
       </c>
       <c r="M7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0</v>
+        <v>0.62344801948873685</v>
       </c>
       <c r="N7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0</v>
+        <v>0.59197370918754733</v>
       </c>
       <c r="O7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0</v>
+        <v>0.46347538597823329</v>
       </c>
       <c r="P7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0</v>
+        <v>0.35702126044039478</v>
       </c>
       <c r="Q7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0</v>
+        <v>0.15148949633004302</v>
       </c>
       <c r="R7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0</v>
+        <v>2.6744969627942289E-2</v>
       </c>
       <c r="S7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>0</v>
+        <v>4.34067324727917E-5</v>
       </c>
       <c r="T7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -27607,8 +27696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27668,7 +27757,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -27679,7 +27768,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -46843,7 +46932,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>0</v>
+        <v>1.9757703209289567E-5</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -46863,55 +46952,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0</v>
+        <v>1.1537538630337385E-2</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0</v>
+        <v>0.23990604233336377</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0</v>
+        <v>0.63584220307214034</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0</v>
+        <v>0.79965095547225007</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0</v>
+        <v>0.82668578495016887</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0</v>
+        <v>0.90464583523818232</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0</v>
+        <v>0.88120316357319173</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0</v>
+        <v>0.7407571975861752</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0</v>
+        <v>0.47409516092164211</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0</v>
+        <v>0.11865206409435858</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>0</v>
+        <v>9.274023955380818E-4</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>0</v>
+        <v>7.8569991771052395E-5</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>0</v>
+        <v>5.8663481759166133E-5</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -46944,7 +47033,7 @@
       </c>
       <c r="D7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>0</v>
+        <v>1.9757703209289567E-5</v>
       </c>
       <c r="E7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -46964,55 +47053,55 @@
       </c>
       <c r="I7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0</v>
+        <v>1.1537538630337385E-2</v>
       </c>
       <c r="J7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0</v>
+        <v>0.23990604233336377</v>
       </c>
       <c r="K7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0</v>
+        <v>0.63584220307214034</v>
       </c>
       <c r="L7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0</v>
+        <v>0.79965095547225007</v>
       </c>
       <c r="M7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0</v>
+        <v>0.82668578495016887</v>
       </c>
       <c r="N7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0</v>
+        <v>0.90464583523818232</v>
       </c>
       <c r="O7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0</v>
+        <v>0.88120316357319173</v>
       </c>
       <c r="P7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0</v>
+        <v>0.7407571975861752</v>
       </c>
       <c r="Q7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0</v>
+        <v>0.47409516092164211</v>
       </c>
       <c r="R7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0</v>
+        <v>0.11865206409435858</v>
       </c>
       <c r="S7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>0</v>
+        <v>9.274023955380818E-4</v>
       </c>
       <c r="T7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>0</v>
+        <v>7.8569991771052395E-5</v>
       </c>
       <c r="U7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>0</v>
+        <v>5.8663481759166133E-5</v>
       </c>
       <c r="V7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -47514,7 +47603,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>0</v>
+        <v>3.4612704918032786E-5</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -47538,51 +47627,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0</v>
+        <v>9.9320532786885234E-3</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0</v>
+        <v>0.19398216393442622</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0</v>
+        <v>0.46145520491803282</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0</v>
+        <v>0.61135364098360656</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0</v>
+        <v>0.76751488524590161</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0</v>
+        <v>0.91148434426229497</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0</v>
+        <v>0.7606537090163934</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0</v>
+        <v>0.52453274999999999</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0</v>
+        <v>0.26193729180327868</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0</v>
+        <v>5.5153573770491793E-2</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>0</v>
+        <v>3.3324590163934416E-4</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>0</v>
+        <v>1.47E-4</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -47615,7 +47704,7 @@
       </c>
       <c r="C7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>0</v>
+        <v>3.4612704918032786E-5</v>
       </c>
       <c r="D7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -47639,51 +47728,51 @@
       </c>
       <c r="I7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0</v>
+        <v>9.9320532786885234E-3</v>
       </c>
       <c r="J7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0</v>
+        <v>0.19398216393442622</v>
       </c>
       <c r="K7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0</v>
+        <v>0.46145520491803282</v>
       </c>
       <c r="L7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0</v>
+        <v>0.61135364098360656</v>
       </c>
       <c r="M7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0</v>
+        <v>0.76751488524590161</v>
       </c>
       <c r="N7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0</v>
+        <v>0.91148434426229497</v>
       </c>
       <c r="O7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0</v>
+        <v>0.7606537090163934</v>
       </c>
       <c r="P7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0</v>
+        <v>0.52453274999999999</v>
       </c>
       <c r="Q7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0</v>
+        <v>0.26193729180327868</v>
       </c>
       <c r="R7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0</v>
+        <v>5.5153573770491793E-2</v>
       </c>
       <c r="S7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>0</v>
+        <v>3.3324590163934416E-4</v>
       </c>
       <c r="T7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>0</v>
+        <v>1.47E-4</v>
       </c>
       <c r="U7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -48213,47 +48302,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0</v>
+        <v>1.024310301189572E-2</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0</v>
+        <v>0.22186521924829156</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0</v>
+        <v>0.52074370412553772</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0</v>
+        <v>0.769133504176158</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0</v>
+        <v>0.80424794514047049</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0</v>
+        <v>0.71036845102505675</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0</v>
+        <v>0.57007472475322696</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0</v>
+        <v>0.45698721336370535</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0</v>
+        <v>0.1954214502657555</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0</v>
+        <v>3.4501010820045551E-2</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>0</v>
+        <v>5.642875221462921E-5</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -48314,47 +48403,47 @@
       </c>
       <c r="I7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0</v>
+        <v>1.024310301189572E-2</v>
       </c>
       <c r="J7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0</v>
+        <v>0.22186521924829156</v>
       </c>
       <c r="K7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0</v>
+        <v>0.52074370412553772</v>
       </c>
       <c r="L7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0</v>
+        <v>0.769133504176158</v>
       </c>
       <c r="M7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0</v>
+        <v>0.80424794514047049</v>
       </c>
       <c r="N7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0</v>
+        <v>0.71036845102505675</v>
       </c>
       <c r="O7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0</v>
+        <v>0.57007472475322696</v>
       </c>
       <c r="P7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0</v>
+        <v>0.45698721336370535</v>
       </c>
       <c r="Q7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0</v>
+        <v>0.1954214502657555</v>
       </c>
       <c r="R7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0</v>
+        <v>3.4501010820045551E-2</v>
       </c>
       <c r="S7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>0</v>
+        <v>5.642875221462921E-5</v>
       </c>
       <c r="T7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -50610,7 +50699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9D4FD3-4E6B-4832-B159-4E067DAE6C14}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
